--- a/medicine/Médecine vétérinaire/Nourriture_pour_oiseaux/Nourriture_pour_oiseaux.xlsx
+++ b/medicine/Médecine vétérinaire/Nourriture_pour_oiseaux/Nourriture_pour_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nourriture pour oiseaux est un aliment (souvent composé de graines) consommé par les oiseaux. À l'échelle mondiale, la plus importante utilisation de la nourriture pour oiseaux est l'alimentation des volailles. La nourriture pour oiseaux est également utilisée pour nourrir les oiseaux de compagnie et dans les mangeoires d'oiseaux.
 </t>
